--- a/biology/Botanique/Epithelantha_micromeris/Epithelantha_micromeris.xlsx
+++ b/biology/Botanique/Epithelantha_micromeris/Epithelantha_micromeris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epithelanha micromeris
 Epithelantha micromeris est une espèce de plantes à fleurs du genre Epithelantha et de la famille des Cactaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce est solitaire et cespiteuse, la tige aux dimensions de 1 à 4 cm de diamètre parfois plus, est recouverte d'épines fines et blanches.
 Les fleurs sont roses, discrètes et apparaissant à l'apex, elles sont autofertiles.
@@ -544,12 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">États-Unis: Arizona (Santa Cruz, Comté de Cochise), Nouveau-Mexique (Hidalgo, Sandoval Co, De La Sierra), Ouest du Texas.
 Mexique: Nord de Chihuahua.
-Habitat
-Dans les semi-désert, parmi les roches calcaires.
 </t>
         </is>
       </c>
@@ -575,13 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Epithelantha ont une croissance lente, elle supporte, au sec, des températures allant jusqu'à −10 °C.
-Le substrat doit être minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les semi-désert, parmi les roches calcaires.
 </t>
         </is>
       </c>
@@ -607,13 +626,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Epithelantha tient son nom du grec, signifiant "fleur (anthos), au-dessus (epi), du tubercule (thele)", faisant référence  à la position de la fleur près de l'apex du tubercule.
-Micromeris "petit (micro) et partie (meris)" en rapport avec la petite taille de la plante.</t>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Epithelantha ont une croissance lente, elle supporte, au sec, des températures allant jusqu'à −10 °C.
+Le substrat doit être minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +660,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Epithelantha tient son nom du grec, signifiant "fleur (anthos), au-dessus (epi), du tubercule (thele)", faisant référence  à la position de la fleur près de l'apex du tubercule.
+Micromeris "petit (micro) et partie (meris)" en rapport avec la petite taille de la plante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Epithelantha_micromeris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epithelantha_micromeris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Epithelantha micromeris subsp. greggii
 Epithelantha micromeris subsp. micromeris
